--- a/data/data_raw/from_collectors/watson_raw_data_2021.xlsx
+++ b/data/data_raw/from_collectors/watson_raw_data_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Terrestrial_Invert_Ecologist\Bees\RPBB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmola/My Drive/Work/Colorado State University/Projects/rpbb_popgen_archive/data/data_raw/from_collectors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F8339E-265B-4592-B04D-D0A92D017E4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8F329A-9F11-144F-A4C0-CF0974BCFDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,24 @@
     <definedName name="Z_259C8D73_6BC0_4435_819C_E5BDF7F62435_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$1:$O$1</definedName>
     <definedName name="Z_401BB957_40FE_4D84_BEC4_81790204053F_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$1:$O$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{259C8D73-6BC0-4435-819C-E5BDF7F62435}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{401BB957-40FE-4D84-BEC4-81790204053F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{259C8D73-6BC0-4435-819C-E5BDF7F62435}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -237,20 +250,24 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -285,18 +302,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,27 +535,26 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
     <col min="13" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,652 +600,667 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-    </row>
-    <row r="2" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+    </row>
+    <row r="2" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>44405</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="4">
-        <v>44.528064000000001</v>
-      </c>
-      <c r="H2" s="4">
-        <v>-87.926496</v>
-      </c>
-      <c r="I2" s="7">
-        <v>1</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="G2" s="3">
+        <v>44.530064000000003</v>
+      </c>
+      <c r="H2" s="3">
+        <v>-87.924496000000005</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="5">
-        <v>44494</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="L2" s="4">
+        <v>44494</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>44397</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="4">
-        <v>43.819175000000001</v>
-      </c>
-      <c r="H3" s="4">
-        <v>-89.026228000000003</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="G3" s="3">
+        <v>43.823174999999999</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-89.025227999999998</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="5">
-        <v>44494</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="L3" s="4">
+        <v>44494</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>44397</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="4">
-        <v>43.819175000000001</v>
-      </c>
-      <c r="H4" s="4">
-        <v>-89.026228000000003</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="G4" s="3">
+        <v>43.820174999999999</v>
+      </c>
+      <c r="H4" s="3">
+        <v>-89.023228000000003</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="5">
-        <v>44494</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="L4" s="4">
+        <v>44494</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>44426</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="4">
-        <v>44.182040999999998</v>
-      </c>
-      <c r="H5" s="4">
-        <v>-87.607654999999994</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="G5" s="3">
+        <v>44.184041000000001</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-87.606654999999989</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="5">
-        <v>44494</v>
-      </c>
-      <c r="M5" s="7" t="s">
+      <c r="L5" s="4">
+        <v>44494</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>44426</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="4">
-        <v>44.182040999999998</v>
-      </c>
-      <c r="H6" s="4">
-        <v>-87.607654999999994</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="G6" s="3">
+        <v>44.183040999999996</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-87.604654999999994</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="5">
-        <v>44494</v>
-      </c>
-      <c r="M6" s="7" t="s">
+      <c r="L6" s="4">
+        <v>44494</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>44426</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="4">
-        <v>44.182040999999998</v>
-      </c>
-      <c r="H7" s="4">
-        <v>-87.607654999999994</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="G7" s="3">
+        <v>44.183040999999996</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-87.602654999999999</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="5">
-        <v>44494</v>
-      </c>
-      <c r="M7" s="7" t="s">
+      <c r="L7" s="4">
+        <v>44494</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>44420</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="4">
-        <v>44.393650000000001</v>
-      </c>
-      <c r="H8" s="4">
-        <v>-87.813789999999997</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="G8" s="3">
+        <v>44.397649999999999</v>
+      </c>
+      <c r="H8" s="3">
+        <v>-87.811790000000002</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="5">
-        <v>44494</v>
-      </c>
-      <c r="M8" s="7" t="s">
+      <c r="L8" s="4">
+        <v>44494</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>44418</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="4">
-        <v>43.740786999999997</v>
-      </c>
-      <c r="H9" s="4">
-        <v>-87.743712000000002</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="G9" s="3">
+        <v>43.744786999999995</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-87.740712000000002</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="5">
-        <v>44494</v>
-      </c>
-      <c r="M9" s="7" t="s">
+      <c r="L9" s="4">
+        <v>44494</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>44418</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="4">
-        <v>43.740786999999997</v>
-      </c>
-      <c r="H10" s="4">
-        <v>-87.743712000000002</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="G10" s="3">
+        <v>43.745787</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-87.738712000000007</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="5">
-        <v>44494</v>
-      </c>
-      <c r="M10" s="7" t="s">
+      <c r="L10" s="4">
+        <v>44494</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>44418</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="4">
-        <v>43.501483</v>
-      </c>
-      <c r="H11" s="4">
-        <v>-88.186785999999998</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="G11" s="3">
+        <v>43.506483000000003</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-88.184786000000003</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="5">
-        <v>44494</v>
-      </c>
-      <c r="M11" s="7" t="s">
+      <c r="L11" s="4">
+        <v>44494</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>44413</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="4">
-        <v>44.532933</v>
-      </c>
-      <c r="H12" s="4">
-        <v>-88.132769999999994</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="G12" s="3">
+        <v>44.537933000000002</v>
+      </c>
+      <c r="H12" s="3">
+        <v>-88.131769999999989</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="5">
-        <v>44494</v>
-      </c>
-      <c r="M12" s="7" t="s">
+      <c r="L12" s="4">
+        <v>44494</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>44414</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="4">
-        <v>44.464503000000001</v>
-      </c>
-      <c r="H13" s="4">
-        <v>-87.559343999999996</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="G13" s="3">
+        <v>44.466503000000003</v>
+      </c>
+      <c r="H13" s="3">
+        <v>-87.555343999999991</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="5">
-        <v>44494</v>
-      </c>
-      <c r="M13" s="7" t="s">
+      <c r="L13" s="4">
+        <v>44494</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>44370</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="4">
-        <v>43.806730000000002</v>
-      </c>
-      <c r="H14" s="4">
-        <v>-91.195520000000002</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="G14" s="3">
+        <v>43.811730000000004</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-91.192520000000002</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="5">
-        <v>44494</v>
-      </c>
-      <c r="M14" s="7" t="s">
+      <c r="L14" s="4">
+        <v>44494</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="15" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>44370</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="4">
-        <v>43.806730000000002</v>
-      </c>
-      <c r="H15" s="4">
-        <v>-91.195520000000002</v>
-      </c>
-      <c r="I15" s="7">
-        <v>1</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="G15" s="3">
+        <v>43.809730000000002</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-91.193520000000007</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="5">
-        <v>44494</v>
-      </c>
-      <c r="M15" s="7" t="s">
+      <c r="L15" s="4">
+        <v>44494</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="K16" s="7"/>
-      <c r="O16" s="7"/>
+    <row r="16" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="K16" s="6"/>
+      <c r="O16" s="6"/>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{259C8D73-6BC0-4435-819C-E5BDF7F62435}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:O77" xr:uid="{66DA076C-13DD-0849-AD4F-BEFCC24CD1E8}">
+        <filterColumn colId="10">
+          <filters>
+            <filter val="dead specimen"/>
+            <filter val="dead specimens"/>
+            <filter val="tarsi"/>
+            <filter val="tarsus"/>
+            <filter val="tarsus, swabs"/>
+            <filter val="whole frozen"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
     <customSheetView guid="{401BB957-40FE-4D84-BEC4-81790204053F}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:O77" xr:uid="{00000000-0000-0000-0000-000000000000}">
+      <autoFilter ref="A1:O77" xr:uid="{AE7C1EA6-6C6C-3841-B4B2-B8ED4E13EF58}">
         <filterColumn colId="1">
           <filters>
             <filter val="Michelle Boone"/>
@@ -1249,21 +1279,6 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{259C8D73-6BC0-4435-819C-E5BDF7F62435}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:O77" xr:uid="{00000000-0000-0000-0000-000000000000}">
-        <filterColumn colId="10">
-          <filters>
-            <filter val="dead specimen"/>
-            <filter val="dead specimens"/>
-            <filter val="tarsi"/>
-            <filter val="tarsus"/>
-            <filter val="tarsus, swabs"/>
-            <filter val="whole frozen"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
